--- a/Code/Results/Cases/Case_5_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_162/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83029103998173</v>
+        <v>14.26366496892708</v>
       </c>
       <c r="C2">
-        <v>11.63054473615923</v>
+        <v>11.10383122448297</v>
       </c>
       <c r="D2">
-        <v>5.027390979316023</v>
+        <v>6.826510824745437</v>
       </c>
       <c r="E2">
-        <v>9.87489370922663</v>
+        <v>12.73965231580043</v>
       </c>
       <c r="F2">
-        <v>34.47434111557762</v>
+        <v>44.35775937862943</v>
       </c>
       <c r="I2">
-        <v>21.07573769813281</v>
+        <v>29.52759519459213</v>
       </c>
       <c r="J2">
-        <v>6.691257920109857</v>
+        <v>10.37009018898852</v>
       </c>
       <c r="K2">
-        <v>14.0459713970886</v>
+        <v>15.3236777357165</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.65140855121102</v>
+        <v>21.97709096228463</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.92077878559527</v>
+        <v>14.06300550304535</v>
       </c>
       <c r="C3">
-        <v>10.93960127596692</v>
+        <v>10.95478535355906</v>
       </c>
       <c r="D3">
-        <v>4.770657028116252</v>
+        <v>6.799054472679343</v>
       </c>
       <c r="E3">
-        <v>9.451624620929865</v>
+        <v>12.69667285973817</v>
       </c>
       <c r="F3">
-        <v>33.62483944281053</v>
+        <v>44.30839309715767</v>
       </c>
       <c r="I3">
-        <v>20.89859775013783</v>
+        <v>29.56263075874984</v>
       </c>
       <c r="J3">
-        <v>6.579818796436408</v>
+        <v>10.37806476201736</v>
       </c>
       <c r="K3">
-        <v>13.27587609982727</v>
+        <v>15.19114164693388</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.84483114116462</v>
+        <v>22.03402453523888</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.34057518922702</v>
+        <v>13.94228964832556</v>
       </c>
       <c r="C4">
-        <v>10.50204490442096</v>
+        <v>10.86551881285995</v>
       </c>
       <c r="D4">
-        <v>4.608340530743762</v>
+        <v>6.783485936586561</v>
       </c>
       <c r="E4">
-        <v>9.188965236089802</v>
+        <v>12.67304878075018</v>
       </c>
       <c r="F4">
-        <v>33.12177442559143</v>
+        <v>44.28792935998142</v>
       </c>
       <c r="I4">
-        <v>20.80492047539287</v>
+        <v>29.5895240158067</v>
       </c>
       <c r="J4">
-        <v>6.514693179361957</v>
+        <v>10.38465996792817</v>
       </c>
       <c r="K4">
-        <v>12.78945327789712</v>
+        <v>15.1130951457312</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.96768202834721</v>
+        <v>22.07090824167022</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09882911310761</v>
+        <v>13.89378679102743</v>
       </c>
       <c r="C5">
-        <v>10.32053500390841</v>
+        <v>10.82975257494245</v>
       </c>
       <c r="D5">
-        <v>4.541097661692187</v>
+        <v>6.777470976452641</v>
       </c>
       <c r="E5">
-        <v>9.081374909461717</v>
+        <v>12.66412392969246</v>
       </c>
       <c r="F5">
-        <v>32.92151169619265</v>
+        <v>44.28206962835113</v>
       </c>
       <c r="I5">
-        <v>20.77040862276636</v>
+        <v>29.6018338399651</v>
       </c>
       <c r="J5">
-        <v>6.488983952228393</v>
+        <v>10.38777472127825</v>
       </c>
       <c r="K5">
-        <v>12.58802513922203</v>
+        <v>15.08216023924443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.01876554520122</v>
+        <v>22.08642363047205</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.05837248594394</v>
+        <v>13.88577643082105</v>
       </c>
       <c r="C6">
-        <v>10.29020710073737</v>
+        <v>10.82385179452109</v>
       </c>
       <c r="D6">
-        <v>4.529868356831147</v>
+        <v>6.776492227696274</v>
       </c>
       <c r="E6">
-        <v>9.06348065017368</v>
+        <v>12.66268455484085</v>
       </c>
       <c r="F6">
-        <v>32.88854675933052</v>
+        <v>44.28124643240006</v>
       </c>
       <c r="I6">
-        <v>20.76489526205388</v>
+        <v>29.60395936863678</v>
       </c>
       <c r="J6">
-        <v>6.484765077745952</v>
+        <v>10.38831771997561</v>
       </c>
       <c r="K6">
-        <v>12.55439145813862</v>
+        <v>15.07707694989734</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.02730940292951</v>
+        <v>22.08902925854161</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.33733615900932</v>
+        <v>13.94163264545358</v>
       </c>
       <c r="C7">
-        <v>10.49960974059912</v>
+        <v>10.86503392572701</v>
       </c>
       <c r="D7">
-        <v>4.607437998080109</v>
+        <v>6.783403476871785</v>
       </c>
       <c r="E7">
-        <v>9.187516278695494</v>
+        <v>12.67292556576685</v>
       </c>
       <c r="F7">
-        <v>33.11905431674602</v>
+        <v>44.28784029180577</v>
       </c>
       <c r="I7">
-        <v>20.80444038310079</v>
+        <v>29.58968456557144</v>
       </c>
       <c r="J7">
-        <v>6.51434309520045</v>
+        <v>10.38470024516433</v>
       </c>
       <c r="K7">
-        <v>12.78674942299904</v>
+        <v>15.11267438447519</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.96836683351023</v>
+        <v>22.07111552320031</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.52129056056794</v>
+        <v>14.19399939274691</v>
       </c>
       <c r="C8">
-        <v>11.39514578112028</v>
+        <v>11.05200111653325</v>
       </c>
       <c r="D8">
-        <v>4.939883774658226</v>
+        <v>6.816779307127001</v>
       </c>
       <c r="E8">
-        <v>9.729604840543981</v>
+        <v>12.72426331083819</v>
       </c>
       <c r="F8">
-        <v>34.17763549788074</v>
+        <v>44.33869651950496</v>
       </c>
       <c r="I8">
-        <v>21.01145011264357</v>
+        <v>29.53855712255336</v>
       </c>
       <c r="J8">
-        <v>6.652149711327763</v>
+        <v>10.3724872563529</v>
       </c>
       <c r="K8">
-        <v>13.78337213743314</v>
+        <v>15.27730762393885</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.71724697515832</v>
+        <v>21.99632222618154</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.83083785008385</v>
+        <v>14.70580014342941</v>
       </c>
       <c r="C9">
-        <v>13.04125913052615</v>
+        <v>11.43444057971949</v>
       </c>
       <c r="D9">
-        <v>5.551904257219534</v>
+        <v>6.892225652731784</v>
       </c>
       <c r="E9">
-        <v>10.76543497239932</v>
+        <v>12.84654757021664</v>
       </c>
       <c r="F9">
-        <v>36.3971376772793</v>
+        <v>44.51634485075315</v>
       </c>
       <c r="I9">
-        <v>21.54289261523396</v>
+        <v>29.48109831075304</v>
       </c>
       <c r="J9">
-        <v>6.948522226718524</v>
+        <v>10.36201449057142</v>
       </c>
       <c r="K9">
-        <v>15.71282968755524</v>
+        <v>15.62510029526663</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.25769507835593</v>
+        <v>21.8649087720981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.43973418401939</v>
+        <v>15.08829679470493</v>
       </c>
       <c r="C10">
-        <v>14.18024887536515</v>
+        <v>11.72227335233791</v>
       </c>
       <c r="D10">
-        <v>5.974448904255627</v>
+        <v>6.953409199125382</v>
       </c>
       <c r="E10">
-        <v>11.50436594482466</v>
+        <v>12.9490708460462</v>
       </c>
       <c r="F10">
-        <v>38.11158337121577</v>
+        <v>44.69396872344506</v>
       </c>
       <c r="I10">
-        <v>22.01772389836945</v>
+        <v>29.46510269913129</v>
       </c>
       <c r="J10">
-        <v>7.182199070038177</v>
+        <v>10.36252830157745</v>
       </c>
       <c r="K10">
-        <v>17.22323530992765</v>
+        <v>15.89375124522731</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.94097418013408</v>
+        <v>21.77761988052255</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.13898141019051</v>
+        <v>15.26290588042945</v>
       </c>
       <c r="C11">
-        <v>14.71837802285517</v>
+        <v>11.85411381437425</v>
       </c>
       <c r="D11">
-        <v>6.160434646205649</v>
+        <v>6.982413004547946</v>
       </c>
       <c r="E11">
-        <v>11.83497770377652</v>
+        <v>12.99834462361378</v>
       </c>
       <c r="F11">
-        <v>38.90928018612364</v>
+        <v>44.78487997421046</v>
       </c>
       <c r="I11">
-        <v>22.2537580837438</v>
+        <v>29.46353892312532</v>
       </c>
       <c r="J11">
-        <v>7.291991322897817</v>
+        <v>10.36454038056826</v>
       </c>
       <c r="K11">
-        <v>17.87995551416563</v>
+        <v>16.01835470078392</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.80170846244027</v>
+        <v>21.73991257929062</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.39919334751949</v>
+        <v>15.3290478052836</v>
       </c>
       <c r="C12">
-        <v>14.92024143057751</v>
+        <v>11.9041197122912</v>
       </c>
       <c r="D12">
-        <v>6.229949834593624</v>
+        <v>6.993557243679066</v>
       </c>
       <c r="E12">
-        <v>11.9593398161299</v>
+        <v>13.01737107500129</v>
       </c>
       <c r="F12">
-        <v>39.21390056723244</v>
+        <v>44.82074577326816</v>
       </c>
       <c r="I12">
-        <v>22.34616091915736</v>
+        <v>29.46376911143746</v>
       </c>
       <c r="J12">
-        <v>7.334073754012739</v>
+        <v>10.36555744079664</v>
       </c>
       <c r="K12">
-        <v>18.12439783192345</v>
+        <v>16.06584309148691</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.74969585421305</v>
+        <v>21.72592099939128</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.34335366480219</v>
+        <v>15.31480305093265</v>
       </c>
       <c r="C13">
-        <v>14.87689533297238</v>
+        <v>11.89334722738046</v>
       </c>
       <c r="D13">
-        <v>6.215019309274337</v>
+        <v>6.991150084711633</v>
       </c>
       <c r="E13">
-        <v>11.93259367301106</v>
+        <v>13.01325723026878</v>
       </c>
       <c r="F13">
-        <v>39.14818146405901</v>
+        <v>44.81295764432853</v>
       </c>
       <c r="I13">
-        <v>22.3261236089945</v>
+        <v>29.46368295213026</v>
       </c>
       <c r="J13">
-        <v>7.324987915617193</v>
+        <v>10.3653270625609</v>
       </c>
       <c r="K13">
-        <v>18.07193944537077</v>
+        <v>16.05560275127105</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.76086489296918</v>
+        <v>21.72892156171945</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.16048023820613</v>
+        <v>15.26834736432949</v>
       </c>
       <c r="C14">
-        <v>14.73504363018367</v>
+        <v>11.85822648901698</v>
       </c>
       <c r="D14">
-        <v>6.166172080107047</v>
+        <v>6.983326661140728</v>
       </c>
       <c r="E14">
-        <v>11.84522590029682</v>
+        <v>12.99990264279201</v>
       </c>
       <c r="F14">
-        <v>38.93429030631151</v>
+        <v>44.78780190859443</v>
       </c>
       <c r="I14">
-        <v>22.26129872983691</v>
+        <v>29.46354137605016</v>
       </c>
       <c r="J14">
-        <v>7.29544328141675</v>
+        <v>10.36461894541174</v>
       </c>
       <c r="K14">
-        <v>17.90015022742872</v>
+        <v>16.02225574314954</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.79741462653093</v>
+        <v>21.73875572653503</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.04787248419675</v>
+        <v>15.23989274279122</v>
       </c>
       <c r="C15">
-        <v>14.64777655054093</v>
+        <v>11.83672309905002</v>
       </c>
       <c r="D15">
-        <v>6.13613240271849</v>
+        <v>6.9785553516167</v>
       </c>
       <c r="E15">
-        <v>11.79160129016733</v>
+        <v>12.99177008735628</v>
       </c>
       <c r="F15">
-        <v>38.80360822171816</v>
+        <v>44.77258033548246</v>
       </c>
       <c r="I15">
-        <v>22.2219894358418</v>
+        <v>29.4635617706988</v>
       </c>
       <c r="J15">
-        <v>7.277412489139008</v>
+        <v>10.36421840877166</v>
       </c>
       <c r="K15">
-        <v>17.79437561303525</v>
+        <v>16.00186809618307</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.81989780271633</v>
+        <v>21.7448168483788</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.39338950915178</v>
+        <v>15.07689222998696</v>
       </c>
       <c r="C16">
-        <v>14.14708294737666</v>
+        <v>11.71367122875358</v>
       </c>
       <c r="D16">
-        <v>5.962167199780493</v>
+        <v>6.951536681746997</v>
       </c>
       <c r="E16">
-        <v>11.48264469154534</v>
+        <v>12.94590275747106</v>
       </c>
       <c r="F16">
-        <v>38.0598084971457</v>
+        <v>44.68822972769214</v>
       </c>
       <c r="I16">
-        <v>22.00271355598921</v>
+        <v>29.46531993403201</v>
       </c>
       <c r="J16">
-        <v>7.175094447871154</v>
+        <v>10.3624325444787</v>
       </c>
       <c r="K16">
-        <v>17.17971632234935</v>
+        <v>15.88565282609643</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.95017495493462</v>
+        <v>21.78012437199717</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.98360312118313</v>
+        <v>14.9770050248034</v>
       </c>
       <c r="C17">
-        <v>13.8547125984676</v>
+        <v>11.63837909858239</v>
       </c>
       <c r="D17">
-        <v>5.853833740693094</v>
+        <v>6.935256456710444</v>
       </c>
       <c r="E17">
-        <v>11.29165987777269</v>
+        <v>12.9184316992592</v>
       </c>
       <c r="F17">
-        <v>37.60805122474512</v>
+        <v>44.63906320390273</v>
       </c>
       <c r="I17">
-        <v>21.87342443197947</v>
+        <v>29.46786242424812</v>
       </c>
       <c r="J17">
-        <v>7.113222026139467</v>
+        <v>10.36179206946061</v>
       </c>
       <c r="K17">
-        <v>16.79494905531497</v>
+        <v>15.81494279404495</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.03134906182807</v>
+        <v>21.80229659451929</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.74482419280291</v>
+        <v>14.91961378587485</v>
       </c>
       <c r="C18">
-        <v>13.68510244100774</v>
+        <v>11.59516102893654</v>
       </c>
       <c r="D18">
-        <v>5.790937062507465</v>
+        <v>6.926003184418293</v>
       </c>
       <c r="E18">
-        <v>11.18129082835714</v>
+        <v>12.90287985714585</v>
       </c>
       <c r="F18">
-        <v>37.34988520073443</v>
+        <v>44.61173640912274</v>
       </c>
       <c r="I18">
-        <v>21.80093749219002</v>
+        <v>29.4698624774727</v>
       </c>
       <c r="J18">
-        <v>7.077962844582599</v>
+        <v>10.36159111503053</v>
       </c>
       <c r="K18">
-        <v>16.57077445060924</v>
+        <v>15.77449991463625</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.07848887765426</v>
+        <v>21.81523782035021</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66344527148031</v>
+        <v>14.9001946669128</v>
       </c>
       <c r="C19">
-        <v>13.62742651734519</v>
+        <v>11.58054475710715</v>
       </c>
       <c r="D19">
-        <v>5.769541337825208</v>
+        <v>6.922889412683478</v>
       </c>
       <c r="E19">
-        <v>11.14383399048667</v>
+        <v>12.89765733750454</v>
       </c>
       <c r="F19">
-        <v>37.26276270362069</v>
+        <v>44.60264801366792</v>
       </c>
       <c r="I19">
-        <v>21.77671276374169</v>
+        <v>29.47063197494052</v>
       </c>
       <c r="J19">
-        <v>7.066080978424727</v>
+        <v>10.3615518475388</v>
       </c>
       <c r="K19">
-        <v>16.49437681975152</v>
+        <v>15.76084697477222</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.09452613397766</v>
+        <v>21.81965185784673</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.02754360531669</v>
+        <v>14.98763233659731</v>
       </c>
       <c r="C20">
-        <v>13.88598550953008</v>
+        <v>11.64638532908092</v>
       </c>
       <c r="D20">
-        <v>5.865426840205929</v>
+        <v>6.936978111127691</v>
       </c>
       <c r="E20">
-        <v>11.31204465398478</v>
+        <v>12.92133037292773</v>
       </c>
       <c r="F20">
-        <v>37.6559685914261</v>
+        <v>44.64419858076928</v>
       </c>
       <c r="I20">
-        <v>21.8869922360935</v>
+        <v>29.46753611623681</v>
       </c>
       <c r="J20">
-        <v>7.119774462332837</v>
+        <v>10.36184292464851</v>
       </c>
       <c r="K20">
-        <v>16.83620400963831</v>
+        <v>15.82244672671514</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.02266109128292</v>
+        <v>21.79991683273945</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.21431784780473</v>
+        <v>15.28199246895727</v>
       </c>
       <c r="C21">
-        <v>14.77678768380036</v>
+        <v>11.86854049603316</v>
       </c>
       <c r="D21">
-        <v>6.180544584208222</v>
+        <v>6.985620276562425</v>
       </c>
       <c r="E21">
-        <v>11.87091075706522</v>
+        <v>13.00381532801858</v>
       </c>
       <c r="F21">
-        <v>38.99704601153572</v>
+        <v>44.79515180629823</v>
       </c>
       <c r="I21">
-        <v>22.28025620339132</v>
+        <v>29.46356063690298</v>
       </c>
       <c r="J21">
-        <v>7.304107458305473</v>
+        <v>10.36482001781666</v>
       </c>
       <c r="K21">
-        <v>17.95072300960626</v>
+        <v>16.03204264617884</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.78665913246596</v>
+        <v>21.73585939794237</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.96332315002224</v>
+        <v>15.47446825684585</v>
       </c>
       <c r="C22">
-        <v>15.35899192593808</v>
+        <v>12.01418052415566</v>
       </c>
       <c r="D22">
-        <v>6.381165325132605</v>
+        <v>7.018346372221512</v>
       </c>
       <c r="E22">
-        <v>12.23130052997405</v>
+        <v>13.05986060285647</v>
       </c>
       <c r="F22">
-        <v>39.88840274180018</v>
+        <v>44.902192233322</v>
       </c>
       <c r="I22">
-        <v>22.55496042551349</v>
+        <v>29.46575586999021</v>
       </c>
       <c r="J22">
-        <v>7.427536645345362</v>
+        <v>10.36825244356257</v>
       </c>
       <c r="K22">
-        <v>18.65445719346782</v>
+        <v>16.17077745272054</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.63666051035021</v>
+        <v>21.69566894449095</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.56595899318164</v>
+        <v>15.3717531195346</v>
       </c>
       <c r="C23">
-        <v>15.04978429677059</v>
+        <v>11.93642461421895</v>
       </c>
       <c r="D23">
-        <v>6.274581149713904</v>
+        <v>7.000796696044026</v>
       </c>
       <c r="E23">
-        <v>12.03940608095865</v>
+        <v>13.02975661866392</v>
       </c>
       <c r="F23">
-        <v>39.41130021167763</v>
+        <v>44.84430073418741</v>
       </c>
       <c r="I23">
-        <v>22.40667931664152</v>
+        <v>29.46414544946425</v>
       </c>
       <c r="J23">
-        <v>7.361387201503655</v>
+        <v>10.36628468784254</v>
       </c>
       <c r="K23">
-        <v>18.28107446319498</v>
+        <v>16.09658516160248</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.71631676610239</v>
+        <v>21.71696621708448</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.00768804878946</v>
+        <v>14.98282761402689</v>
       </c>
       <c r="C24">
-        <v>13.87185177058497</v>
+        <v>11.64276549550993</v>
       </c>
       <c r="D24">
-        <v>5.860187511990107</v>
+        <v>6.936199419063168</v>
       </c>
       <c r="E24">
-        <v>11.30283046689975</v>
+        <v>12.92001912905573</v>
       </c>
       <c r="F24">
-        <v>37.63430030461127</v>
+        <v>44.64187394859035</v>
       </c>
       <c r="I24">
-        <v>21.88085250162831</v>
+        <v>29.46768196312969</v>
       </c>
       <c r="J24">
-        <v>7.116811134096689</v>
+        <v>10.36181941196347</v>
       </c>
       <c r="K24">
-        <v>16.81756189487996</v>
+        <v>15.81905354382527</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.0265874557477</v>
+        <v>21.80099211825756</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20868179283895</v>
+        <v>14.56593065830297</v>
       </c>
       <c r="C25">
-        <v>12.60818779372841</v>
+        <v>11.32957514812424</v>
       </c>
       <c r="D25">
-        <v>5.390941273993304</v>
+        <v>6.870779082263994</v>
       </c>
       <c r="E25">
-        <v>10.48877385861363</v>
+        <v>12.8112008202844</v>
       </c>
       <c r="F25">
-        <v>35.78176423015271</v>
+        <v>44.45997784860936</v>
       </c>
       <c r="I25">
-        <v>21.38487278415766</v>
+        <v>29.49204571029573</v>
       </c>
       <c r="J25">
-        <v>6.865550235598114</v>
+        <v>10.36340517480075</v>
       </c>
       <c r="K25">
-        <v>15.13848123599767</v>
+        <v>15.52855282792171</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.37842077227537</v>
+        <v>21.89883054336979</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_162/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.26366496892708</v>
+        <v>14.83029103998175</v>
       </c>
       <c r="C2">
-        <v>11.10383122448297</v>
+        <v>11.63054473615922</v>
       </c>
       <c r="D2">
-        <v>6.826510824745437</v>
+        <v>5.027390979315972</v>
       </c>
       <c r="E2">
-        <v>12.73965231580043</v>
+        <v>9.874893709226541</v>
       </c>
       <c r="F2">
-        <v>44.35775937862943</v>
+        <v>34.4743411155776</v>
       </c>
       <c r="I2">
-        <v>29.52759519459213</v>
+        <v>21.07573769813281</v>
       </c>
       <c r="J2">
-        <v>10.37009018898852</v>
+        <v>6.691257920109766</v>
       </c>
       <c r="K2">
-        <v>15.3236777357165</v>
+        <v>14.0459713970886</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.97709096228463</v>
+        <v>14.65140855121102</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.06300550304535</v>
+        <v>13.92077878559528</v>
       </c>
       <c r="C3">
-        <v>10.95478535355906</v>
+        <v>10.93960127596685</v>
       </c>
       <c r="D3">
-        <v>6.799054472679343</v>
+        <v>4.770657028116261</v>
       </c>
       <c r="E3">
-        <v>12.69667285973817</v>
+        <v>9.451624620929888</v>
       </c>
       <c r="F3">
-        <v>44.30839309715767</v>
+        <v>33.62483944281049</v>
       </c>
       <c r="I3">
-        <v>29.56263075874984</v>
+        <v>20.89859775013784</v>
       </c>
       <c r="J3">
-        <v>10.37806476201736</v>
+        <v>6.579818796436454</v>
       </c>
       <c r="K3">
-        <v>15.19114164693388</v>
+        <v>13.27587609982726</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.03402453523888</v>
+        <v>14.84483114116462</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.94228964832556</v>
+        <v>13.34057518922702</v>
       </c>
       <c r="C4">
-        <v>10.86551881285995</v>
+        <v>10.50204490442094</v>
       </c>
       <c r="D4">
-        <v>6.783485936586561</v>
+        <v>4.608340530743861</v>
       </c>
       <c r="E4">
-        <v>12.67304878075018</v>
+        <v>9.188965236089839</v>
       </c>
       <c r="F4">
-        <v>44.28792935998142</v>
+        <v>33.12177442559152</v>
       </c>
       <c r="I4">
-        <v>29.5895240158067</v>
+        <v>20.80492047539289</v>
       </c>
       <c r="J4">
-        <v>10.38465996792817</v>
+        <v>6.51469317936195</v>
       </c>
       <c r="K4">
-        <v>15.1130951457312</v>
+        <v>12.78945327789712</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.07090824167022</v>
+        <v>14.96768202834721</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.89378679102743</v>
+        <v>13.09882911310766</v>
       </c>
       <c r="C5">
-        <v>10.82975257494245</v>
+        <v>10.32053500390836</v>
       </c>
       <c r="D5">
-        <v>6.777470976452641</v>
+        <v>4.541097661692127</v>
       </c>
       <c r="E5">
-        <v>12.66412392969246</v>
+        <v>9.081374909461697</v>
       </c>
       <c r="F5">
-        <v>44.28206962835113</v>
+        <v>32.92151169619279</v>
       </c>
       <c r="I5">
-        <v>29.6018338399651</v>
+        <v>20.77040862276658</v>
       </c>
       <c r="J5">
-        <v>10.38777472127825</v>
+        <v>6.488983952228436</v>
       </c>
       <c r="K5">
-        <v>15.08216023924443</v>
+        <v>12.58802513922207</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.08642363047205</v>
+        <v>15.01876554520132</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.88577643082105</v>
+        <v>13.05837248594393</v>
       </c>
       <c r="C6">
-        <v>10.82385179452109</v>
+        <v>10.2902071007374</v>
       </c>
       <c r="D6">
-        <v>6.776492227696274</v>
+        <v>4.529868356831117</v>
       </c>
       <c r="E6">
-        <v>12.66268455484085</v>
+        <v>9.063480650173714</v>
       </c>
       <c r="F6">
-        <v>44.28124643240006</v>
+        <v>32.88854675933025</v>
       </c>
       <c r="I6">
-        <v>29.60395936863678</v>
+        <v>20.76489526205366</v>
       </c>
       <c r="J6">
-        <v>10.38831771997561</v>
+        <v>6.484765077745969</v>
       </c>
       <c r="K6">
-        <v>15.07707694989734</v>
+        <v>12.55439145813859</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.08902925854161</v>
+        <v>15.02730940292935</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.94163264545358</v>
+        <v>13.33733615900929</v>
       </c>
       <c r="C7">
-        <v>10.86503392572701</v>
+        <v>10.49960974059913</v>
       </c>
       <c r="D7">
-        <v>6.783403476871785</v>
+        <v>4.607437998080162</v>
       </c>
       <c r="E7">
-        <v>12.67292556576685</v>
+        <v>9.187516278695549</v>
       </c>
       <c r="F7">
-        <v>44.28784029180577</v>
+        <v>33.1190543167459</v>
       </c>
       <c r="I7">
-        <v>29.58968456557144</v>
+        <v>20.80444038310065</v>
       </c>
       <c r="J7">
-        <v>10.38470024516433</v>
+        <v>6.5143430952005</v>
       </c>
       <c r="K7">
-        <v>15.11267438447519</v>
+        <v>12.78674942299902</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.07111552320031</v>
+        <v>14.96836683351016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.19399939274691</v>
+        <v>14.52129056056796</v>
       </c>
       <c r="C8">
-        <v>11.05200111653325</v>
+        <v>11.39514578112027</v>
       </c>
       <c r="D8">
-        <v>6.816779307127001</v>
+        <v>4.93988377465829</v>
       </c>
       <c r="E8">
-        <v>12.72426331083819</v>
+        <v>9.729604840544017</v>
       </c>
       <c r="F8">
-        <v>44.33869651950496</v>
+        <v>34.17763549788063</v>
       </c>
       <c r="I8">
-        <v>29.53855712255336</v>
+        <v>21.01145011264352</v>
       </c>
       <c r="J8">
-        <v>10.3724872563529</v>
+        <v>6.652149711327753</v>
       </c>
       <c r="K8">
-        <v>15.27730762393885</v>
+        <v>13.78337213743312</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.99632222618154</v>
+        <v>14.71724697515824</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.70580014342941</v>
+        <v>16.83083785008385</v>
       </c>
       <c r="C9">
-        <v>11.43444057971949</v>
+        <v>13.04125913052613</v>
       </c>
       <c r="D9">
-        <v>6.892225652731784</v>
+        <v>5.551904257219486</v>
       </c>
       <c r="E9">
-        <v>12.84654757021664</v>
+        <v>10.76543497239931</v>
       </c>
       <c r="F9">
-        <v>44.51634485075315</v>
+        <v>36.3971376772794</v>
       </c>
       <c r="I9">
-        <v>29.48109831075304</v>
+        <v>21.54289261523415</v>
       </c>
       <c r="J9">
-        <v>10.36201449057142</v>
+        <v>6.948522226718586</v>
       </c>
       <c r="K9">
-        <v>15.62510029526663</v>
+        <v>15.71282968755524</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.8649087720981</v>
+        <v>14.25769507835598</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08829679470493</v>
+        <v>18.4397341840194</v>
       </c>
       <c r="C10">
-        <v>11.72227335233791</v>
+        <v>14.18024887536514</v>
       </c>
       <c r="D10">
-        <v>6.953409199125382</v>
+        <v>5.974448904255655</v>
       </c>
       <c r="E10">
-        <v>12.9490708460462</v>
+        <v>11.5043659448247</v>
       </c>
       <c r="F10">
-        <v>44.69396872344506</v>
+        <v>38.11158337121586</v>
       </c>
       <c r="I10">
-        <v>29.46510269913129</v>
+        <v>22.01772389836945</v>
       </c>
       <c r="J10">
-        <v>10.36252830157745</v>
+        <v>7.182199070038171</v>
       </c>
       <c r="K10">
-        <v>15.89375124522731</v>
+        <v>17.22323530992766</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.77761988052255</v>
+        <v>13.94097418013404</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.26290588042945</v>
+        <v>19.13898141019042</v>
       </c>
       <c r="C11">
-        <v>11.85411381437425</v>
+        <v>14.71837802285518</v>
       </c>
       <c r="D11">
-        <v>6.982413004547946</v>
+        <v>6.160434646205668</v>
       </c>
       <c r="E11">
-        <v>12.99834462361378</v>
+        <v>11.83497770377652</v>
       </c>
       <c r="F11">
-        <v>44.78487997421046</v>
+        <v>38.90928018612379</v>
       </c>
       <c r="I11">
-        <v>29.46353892312532</v>
+        <v>22.25375808374394</v>
       </c>
       <c r="J11">
-        <v>10.36454038056826</v>
+        <v>7.291991322897825</v>
       </c>
       <c r="K11">
-        <v>16.01835470078392</v>
+        <v>17.87995551416557</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.73991257929062</v>
+        <v>13.80170846244031</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.3290478052836</v>
+        <v>19.3991933475196</v>
       </c>
       <c r="C12">
-        <v>11.9041197122912</v>
+        <v>14.92024143057758</v>
       </c>
       <c r="D12">
-        <v>6.993557243679066</v>
+        <v>6.229949834593616</v>
       </c>
       <c r="E12">
-        <v>13.01737107500129</v>
+        <v>11.95933981612991</v>
       </c>
       <c r="F12">
-        <v>44.82074577326816</v>
+        <v>39.21390056723234</v>
       </c>
       <c r="I12">
-        <v>29.46376911143746</v>
+        <v>22.34616091915724</v>
       </c>
       <c r="J12">
-        <v>10.36555744079664</v>
+        <v>7.334073754012755</v>
       </c>
       <c r="K12">
-        <v>16.06584309148691</v>
+        <v>18.12439783192357</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.72592099939128</v>
+        <v>13.74969585421294</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31480305093265</v>
+        <v>19.34335366480219</v>
       </c>
       <c r="C13">
-        <v>11.89334722738046</v>
+        <v>14.87689533297242</v>
       </c>
       <c r="D13">
-        <v>6.991150084711633</v>
+        <v>6.215019309274349</v>
       </c>
       <c r="E13">
-        <v>13.01325723026878</v>
+        <v>11.93259367301108</v>
       </c>
       <c r="F13">
-        <v>44.81295764432853</v>
+        <v>39.14818146405899</v>
       </c>
       <c r="I13">
-        <v>29.46368295213026</v>
+        <v>22.3261236089945</v>
       </c>
       <c r="J13">
-        <v>10.3653270625609</v>
+        <v>7.324987915617236</v>
       </c>
       <c r="K13">
-        <v>16.05560275127105</v>
+        <v>18.07193944537077</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.72892156171945</v>
+        <v>13.76086489296915</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.26834736432949</v>
+        <v>19.16048023820615</v>
       </c>
       <c r="C14">
-        <v>11.85822648901698</v>
+        <v>14.73504363018367</v>
       </c>
       <c r="D14">
-        <v>6.983326661140728</v>
+        <v>6.166172080107097</v>
       </c>
       <c r="E14">
-        <v>12.99990264279201</v>
+        <v>11.84522590029684</v>
       </c>
       <c r="F14">
-        <v>44.78780190859443</v>
+        <v>38.93429030631152</v>
       </c>
       <c r="I14">
-        <v>29.46354137605016</v>
+        <v>22.2612987298369</v>
       </c>
       <c r="J14">
-        <v>10.36461894541174</v>
+        <v>7.295443281416734</v>
       </c>
       <c r="K14">
-        <v>16.02225574314954</v>
+        <v>17.90015022742872</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.73875572653503</v>
+        <v>13.7974146265309</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.23989274279122</v>
+        <v>19.04787248419677</v>
       </c>
       <c r="C15">
-        <v>11.83672309905002</v>
+        <v>14.64777655054084</v>
       </c>
       <c r="D15">
-        <v>6.9785553516167</v>
+        <v>6.136132402718439</v>
       </c>
       <c r="E15">
-        <v>12.99177008735628</v>
+        <v>11.79160129016732</v>
       </c>
       <c r="F15">
-        <v>44.77258033548246</v>
+        <v>38.80360822171826</v>
       </c>
       <c r="I15">
-        <v>29.4635617706988</v>
+        <v>22.22198943584188</v>
       </c>
       <c r="J15">
-        <v>10.36421840877166</v>
+        <v>7.277412489138996</v>
       </c>
       <c r="K15">
-        <v>16.00186809618307</v>
+        <v>17.79437561303523</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.7448168483788</v>
+        <v>13.81989780271645</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.07689222998696</v>
+        <v>18.39338950915179</v>
       </c>
       <c r="C16">
-        <v>11.71367122875358</v>
+        <v>14.14708294737667</v>
       </c>
       <c r="D16">
-        <v>6.951536681746997</v>
+        <v>5.962167199780499</v>
       </c>
       <c r="E16">
-        <v>12.94590275747106</v>
+        <v>11.48264469154533</v>
       </c>
       <c r="F16">
-        <v>44.68822972769214</v>
+        <v>38.05980849714564</v>
       </c>
       <c r="I16">
-        <v>29.46531993403201</v>
+        <v>22.00271355598911</v>
       </c>
       <c r="J16">
-        <v>10.3624325444787</v>
+        <v>7.175094447871125</v>
       </c>
       <c r="K16">
-        <v>15.88565282609643</v>
+        <v>17.17971632234937</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.78012437199717</v>
+        <v>13.95017495493453</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9770050248034</v>
+        <v>17.98360312118308</v>
       </c>
       <c r="C17">
-        <v>11.63837909858239</v>
+        <v>13.85471259846759</v>
       </c>
       <c r="D17">
-        <v>6.935256456710444</v>
+        <v>5.853833740693071</v>
       </c>
       <c r="E17">
-        <v>12.9184316992592</v>
+        <v>11.29165987777267</v>
       </c>
       <c r="F17">
-        <v>44.63906320390273</v>
+        <v>37.60805122474528</v>
       </c>
       <c r="I17">
-        <v>29.46786242424812</v>
+        <v>21.87342443197962</v>
       </c>
       <c r="J17">
-        <v>10.36179206946061</v>
+        <v>7.113222026139508</v>
       </c>
       <c r="K17">
-        <v>15.81494279404495</v>
+        <v>16.79494905531492</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.80229659451929</v>
+        <v>14.03134906182817</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91961378587485</v>
+        <v>17.74482419280299</v>
       </c>
       <c r="C18">
-        <v>11.59516102893654</v>
+        <v>13.68510244100773</v>
       </c>
       <c r="D18">
-        <v>6.926003184418293</v>
+        <v>5.790937062507457</v>
       </c>
       <c r="E18">
-        <v>12.90287985714585</v>
+        <v>11.18129082835716</v>
       </c>
       <c r="F18">
-        <v>44.61173640912274</v>
+        <v>37.34988520073429</v>
       </c>
       <c r="I18">
-        <v>29.4698624774727</v>
+        <v>21.80093749218986</v>
       </c>
       <c r="J18">
-        <v>10.36159111503053</v>
+        <v>7.077962844582561</v>
       </c>
       <c r="K18">
-        <v>15.77449991463625</v>
+        <v>16.5707744506093</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.81523782035021</v>
+        <v>14.07848887765416</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.9001946669128</v>
+        <v>17.66344527148034</v>
       </c>
       <c r="C19">
-        <v>11.58054475710715</v>
+        <v>13.62742651734513</v>
       </c>
       <c r="D19">
-        <v>6.922889412683478</v>
+        <v>5.769541337825164</v>
       </c>
       <c r="E19">
-        <v>12.89765733750454</v>
+        <v>11.14383399048666</v>
       </c>
       <c r="F19">
-        <v>44.60264801366792</v>
+        <v>37.26276270362073</v>
       </c>
       <c r="I19">
-        <v>29.47063197494052</v>
+        <v>21.77671276374169</v>
       </c>
       <c r="J19">
-        <v>10.3615518475388</v>
+        <v>7.066080978424727</v>
       </c>
       <c r="K19">
-        <v>15.76084697477222</v>
+        <v>16.49437681975152</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.81965185784673</v>
+        <v>14.09452613397765</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.98763233659731</v>
+        <v>18.02754360531675</v>
       </c>
       <c r="C20">
-        <v>11.64638532908092</v>
+        <v>13.88598550953006</v>
       </c>
       <c r="D20">
-        <v>6.936978111127691</v>
+        <v>5.86542684020595</v>
       </c>
       <c r="E20">
-        <v>12.92133037292773</v>
+        <v>11.31204465398481</v>
       </c>
       <c r="F20">
-        <v>44.64419858076928</v>
+        <v>37.65596859142606</v>
       </c>
       <c r="I20">
-        <v>29.46753611623681</v>
+        <v>21.88699223609345</v>
       </c>
       <c r="J20">
-        <v>10.36184292464851</v>
+        <v>7.119774462332855</v>
       </c>
       <c r="K20">
-        <v>15.82244672671514</v>
+        <v>16.83620400963835</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.79991683273945</v>
+        <v>14.02266109128293</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28199246895727</v>
+        <v>19.21431784780485</v>
       </c>
       <c r="C21">
-        <v>11.86854049603316</v>
+        <v>14.77678768380034</v>
       </c>
       <c r="D21">
-        <v>6.985620276562425</v>
+        <v>6.180544584208205</v>
       </c>
       <c r="E21">
-        <v>13.00381532801858</v>
+        <v>11.87091075706522</v>
       </c>
       <c r="F21">
-        <v>44.79515180629823</v>
+        <v>38.9970460115357</v>
       </c>
       <c r="I21">
-        <v>29.46356063690298</v>
+        <v>22.28025620339127</v>
       </c>
       <c r="J21">
-        <v>10.36482001781666</v>
+        <v>7.304107458305503</v>
       </c>
       <c r="K21">
-        <v>16.03204264617884</v>
+        <v>17.95072300960634</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.73585939794237</v>
+        <v>13.78665913246597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.47446825684585</v>
+        <v>19.96332315002224</v>
       </c>
       <c r="C22">
-        <v>12.01418052415566</v>
+        <v>15.35899192593803</v>
       </c>
       <c r="D22">
-        <v>7.018346372221512</v>
+        <v>6.381165325132596</v>
       </c>
       <c r="E22">
-        <v>13.05986060285647</v>
+        <v>12.23130052997403</v>
       </c>
       <c r="F22">
-        <v>44.902192233322</v>
+        <v>39.88840274180027</v>
       </c>
       <c r="I22">
-        <v>29.46575586999021</v>
+        <v>22.55496042551357</v>
       </c>
       <c r="J22">
-        <v>10.36825244356257</v>
+        <v>7.427536645345373</v>
       </c>
       <c r="K22">
-        <v>16.17077745272054</v>
+        <v>18.65445719346778</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.69566894449095</v>
+        <v>13.63666051035032</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3717531195346</v>
+        <v>19.56595899318172</v>
       </c>
       <c r="C23">
-        <v>11.93642461421895</v>
+        <v>15.04978429677054</v>
       </c>
       <c r="D23">
-        <v>7.000796696044026</v>
+        <v>6.274581149713939</v>
       </c>
       <c r="E23">
-        <v>13.02975661866392</v>
+        <v>12.03940608095866</v>
       </c>
       <c r="F23">
-        <v>44.84430073418741</v>
+        <v>39.41130021167769</v>
       </c>
       <c r="I23">
-        <v>29.46414544946425</v>
+        <v>22.40667931664147</v>
       </c>
       <c r="J23">
-        <v>10.36628468784254</v>
+        <v>7.361387201503643</v>
       </c>
       <c r="K23">
-        <v>16.09658516160248</v>
+        <v>18.28107446319504</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.71696621708448</v>
+        <v>13.71631676610234</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.98282761402689</v>
+        <v>18.00768804878946</v>
       </c>
       <c r="C24">
-        <v>11.64276549550993</v>
+        <v>13.87185177058495</v>
       </c>
       <c r="D24">
-        <v>6.936199419063168</v>
+        <v>5.860187511990081</v>
       </c>
       <c r="E24">
-        <v>12.92001912905573</v>
+        <v>11.30283046689976</v>
       </c>
       <c r="F24">
-        <v>44.64187394859035</v>
+        <v>37.63430030461132</v>
       </c>
       <c r="I24">
-        <v>29.46768196312969</v>
+        <v>21.88085250162836</v>
       </c>
       <c r="J24">
-        <v>10.36181941196347</v>
+        <v>7.116811134096716</v>
       </c>
       <c r="K24">
-        <v>15.81905354382527</v>
+        <v>16.81756189487997</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.80099211825756</v>
+        <v>14.02658745574772</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.56593065830297</v>
+        <v>16.20868179283897</v>
       </c>
       <c r="C25">
-        <v>11.32957514812424</v>
+        <v>12.60818779372835</v>
       </c>
       <c r="D25">
-        <v>6.870779082263994</v>
+        <v>5.390941273993279</v>
       </c>
       <c r="E25">
-        <v>12.8112008202844</v>
+        <v>10.48877385861363</v>
       </c>
       <c r="F25">
-        <v>44.45997784860936</v>
+        <v>35.78176423015262</v>
       </c>
       <c r="I25">
-        <v>29.49204571029573</v>
+        <v>21.38487278415764</v>
       </c>
       <c r="J25">
-        <v>10.36340517480075</v>
+        <v>6.865550235598112</v>
       </c>
       <c r="K25">
-        <v>15.52855282792171</v>
+        <v>15.13848123599766</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.89883054336979</v>
+        <v>14.37842077227535</v>
       </c>
       <c r="O25">
         <v>0</v>
